--- a/scripts/Monitoramento/outputs/Belém/0 - Monitoramento Form 4.xlsx
+++ b/scripts/Monitoramento/outputs/Belém/0 - Monitoramento Form 4.xlsx
@@ -105,7 +105,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -162,30 +162,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF993399"/>
-        <bgColor rgb="FF993399"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006400"/>
-        <bgColor rgb="FF006400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FF66"/>
-        <bgColor rgb="FF66FF66"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0066FF66"/>
-        <bgColor rgb="0066FF66"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00993399"/>
         <bgColor rgb="00993399"/>
       </patternFill>
@@ -198,8 +174,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6666"/>
-        <bgColor rgb="FFFF6666"/>
+        <fgColor rgb="0066FF66"/>
+        <bgColor rgb="0066FF66"/>
       </patternFill>
     </fill>
     <fill>
@@ -210,14 +186,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0031869b"/>
+        <bgColor rgb="0031869b"/>
       </patternFill>
     </fill>
   </fills>
@@ -359,25 +329,25 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2374,7 +2344,7 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="36" customWidth="1" min="8" max="8"/>
@@ -2546,12 +2516,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="31" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F4" s="26" t="n"/>
+      <c r="E4" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F4" s="26" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
       <c r="G4" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2683,8 +2657,8 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
@@ -2851,14 +2825,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="27" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E4" s="31" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F4" s="26" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>07/11/2025, 15/12/2025</t>
         </is>
       </c>
       <c r="G4" s="29" t="inlineStr">

--- a/scripts/Monitoramento/outputs/Belém/0 - Monitoramento Form 4.xlsx
+++ b/scripts/Monitoramento/outputs/Belém/0 - Monitoramento Form 4.xlsx
@@ -105,7 +105,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="20">
     <fill>
       <patternFill/>
     </fill>
@@ -162,6 +162,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF993399"/>
+        <bgColor rgb="FF993399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor rgb="FF66FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0066FF66"/>
+        <bgColor rgb="0066FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00993399"/>
         <bgColor rgb="00993399"/>
       </patternFill>
@@ -174,14 +198,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0066FF66"/>
-        <bgColor rgb="0066FF66"/>
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6666"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF6666"/>
         <bgColor rgb="00FF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF31869B"/>
+        <bgColor rgb="FF31869B"/>
       </patternFill>
     </fill>
     <fill>
@@ -329,25 +359,25 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
